--- a/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,27</t>
+          <t>-7,27; 2,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 0,73</t>
+          <t>-8,92; 0,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 3,32</t>
+          <t>-5,99; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 1,15</t>
+          <t>-11,91; 1,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -6,13</t>
+          <t>-19,05; -6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -2,62</t>
+          <t>-14,47; -2,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 1,02</t>
+          <t>-7,14; 1,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -3,36</t>
+          <t>-11,47; -3,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,11</t>
+          <t>-7,45; 0,01</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 21,98</t>
+          <t>-36,96; 20,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 6,16</t>
+          <t>-44,89; 6,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 22,59</t>
+          <t>-30,04; 23,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 5,0</t>
+          <t>-41,01; 7,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,62; -26,67</t>
+          <t>-63,93; -26,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,79; -12,66</t>
+          <t>-48,21; -13,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 5,56</t>
+          <t>-31,55; 5,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -17,34</t>
+          <t>-50,39; -19,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,81; -0,45</t>
+          <t>-32,48; 0,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 6,03</t>
+          <t>-5,23; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -3,65</t>
+          <t>-12,85; -2,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 1,76</t>
+          <t>-7,83; 1,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 4,05</t>
+          <t>-9,0; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -1,74</t>
+          <t>-14,48; -1,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 1,78</t>
+          <t>-9,43; 2,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,71</t>
+          <t>-6,09; 2,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -4,28</t>
+          <t>-12,28; -4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,44</t>
+          <t>-7,62; 0,6</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 44,04</t>
+          <t>-27,49; 42,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,03; -24,11</t>
+          <t>-66,01; -18,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 14,39</t>
+          <t>-40,85; 13,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 17,76</t>
+          <t>-32,18; 17,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; -7,85</t>
+          <t>-50,77; -6,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 8,2</t>
+          <t>-32,37; 10,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 14,98</t>
+          <t>-27,14; 15,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,7; -22,65</t>
+          <t>-53,33; -21,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 2,48</t>
+          <t>-32,77; 3,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 4,32</t>
+          <t>-4,99; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 2,79</t>
+          <t>-6,89; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -0,69</t>
+          <t>-18,18; -0,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 3,7</t>
+          <t>-13,59; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 2,95</t>
+          <t>-15,78; 3,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 6,68</t>
+          <t>-11,19; 7,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,08</t>
+          <t>-5,11; 3,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,94</t>
+          <t>-7,32; 1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,13; -0,26</t>
+          <t>-19,05; -0,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 24,85</t>
+          <t>-22,93; 26,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 17,03</t>
+          <t>-30,63; 16,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,28; -3,35</t>
+          <t>-80,96; -4,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 16,19</t>
+          <t>-41,36; 13,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 10,71</t>
+          <t>-50,53; 12,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 29,8</t>
+          <t>-32,96; 31,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 15,89</t>
+          <t>-21,78; 16,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 4,69</t>
+          <t>-30,91; 6,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,74; -1,4</t>
+          <t>-75,27; -3,02</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -1,31</t>
+          <t>-7,87; -1,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; -2,93</t>
+          <t>-9,39; -3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -1,07</t>
+          <t>-7,82; -0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,42</t>
+          <t>-7,76; 1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -1,9</t>
+          <t>-10,58; -1,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -1,05</t>
+          <t>-16,66; -1,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -1,38</t>
+          <t>-6,56; -1,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; -3,67</t>
+          <t>-8,95; -3,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,82; -2,56</t>
+          <t>-11,09; -2,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,78; -5,85</t>
+          <t>-30,98; -5,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -13,53</t>
+          <t>-36,85; -13,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,11; -5,02</t>
+          <t>-30,93; -4,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 6,48</t>
+          <t>-29,21; 5,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,03; -8,27</t>
+          <t>-39,65; -8,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,99; -5,15</t>
+          <t>-64,04; -5,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,26; -5,85</t>
+          <t>-25,98; -5,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,96; -16,1</t>
+          <t>-35,1; -15,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,15; -11,18</t>
+          <t>-45,01; -9,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 1,69</t>
+          <t>-9,67; 1,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 4,76</t>
+          <t>-6,95; 4,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,9</t>
+          <t>-5,99; 5,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 3,74</t>
+          <t>-7,01; 3,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 1,58</t>
+          <t>-8,58; 1,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -2,09</t>
+          <t>-14,6; -2,04</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 0,72</t>
+          <t>-6,82; 0,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 0,83</t>
+          <t>-6,84; 0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -0,2</t>
+          <t>-9,51; -0,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 10,59</t>
+          <t>-39,43; 8,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 26,19</t>
+          <t>-26,75; 24,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 33,64</t>
+          <t>-24,66; 32,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 12,68</t>
+          <t>-19,98; 12,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 5,21</t>
+          <t>-24,28; 5,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -7,33</t>
+          <t>-41,86; -6,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 2,7</t>
+          <t>-22,34; 3,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 3,69</t>
+          <t>-22,64; 2,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -0,92</t>
+          <t>-30,88; -1,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,34</t>
+          <t>-4,08; 5,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,8</t>
+          <t>-3,81; 4,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 4,12</t>
+          <t>-6,25; 4,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -2,39</t>
+          <t>-10,32; -2,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -4,87</t>
+          <t>-12,56; -4,57</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -7,1</t>
+          <t>-14,57; -7,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,87</t>
+          <t>-8,31; -1,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -4,16</t>
+          <t>-10,28; -3,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,13; -6,75</t>
+          <t>-13,18; -6,8</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 82,07</t>
+          <t>-47,32; 93,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 93,24</t>
+          <t>-44,03; 98,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,2; 93,9</t>
+          <t>-73,82; 91,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,69; -7,69</t>
+          <t>-29,0; -8,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,11; -14,73</t>
+          <t>-35,41; -14,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -22,37</t>
+          <t>-41,34; -22,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-28,1; -6,74</t>
+          <t>-28,03; -6,86</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,69; -15,57</t>
+          <t>-33,84; -14,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -24,68</t>
+          <t>-43,67; -25,1</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; -0,36</t>
+          <t>-4,22; -0,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -2,07</t>
+          <t>-5,61; -2,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,69; -1,57</t>
+          <t>-7,49; -1,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,08</t>
+          <t>-6,48; -2,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -5,35</t>
+          <t>-9,49; -5,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -5,78</t>
+          <t>-12,35; -5,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -1,82</t>
+          <t>-4,66; -1,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,24; -4,36</t>
+          <t>-7,2; -4,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -4,23</t>
+          <t>-8,69; -4,23</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -1,85</t>
+          <t>-20,81; -1,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,8; -11,19</t>
+          <t>-27,6; -10,98</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,38; -8,51</t>
+          <t>-37,74; -9,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -7,22</t>
+          <t>-20,61; -7,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,97; -18,68</t>
+          <t>-30,99; -18,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,81; -20,39</t>
+          <t>-41,37; -20,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -7,52</t>
+          <t>-18,56; -7,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-28,32; -18,12</t>
+          <t>-28,38; -18,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,55; -17,66</t>
+          <t>-34,94; -17,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
